--- a/SchedulingData/dynamic10/pso/scheduling2_3.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>220.9</v>
+        <v>227.72</v>
       </c>
       <c r="D2" t="n">
-        <v>305.22</v>
+        <v>290.18</v>
       </c>
       <c r="E2" t="n">
-        <v>12.108</v>
+        <v>12.132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>223.6</v>
+        <v>263.7</v>
       </c>
       <c r="D3" t="n">
-        <v>284.1</v>
+        <v>301.4</v>
       </c>
       <c r="E3" t="n">
-        <v>10.76</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="4">
@@ -504,55 +504,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>284.1</v>
+        <v>239.7</v>
       </c>
       <c r="D4" t="n">
-        <v>345.44</v>
+        <v>305.44</v>
       </c>
       <c r="E4" t="n">
-        <v>7.736</v>
+        <v>12.576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>178.36</v>
+        <v>305.44</v>
       </c>
       <c r="D5" t="n">
-        <v>213.08</v>
+        <v>343.78</v>
       </c>
       <c r="E5" t="n">
-        <v>16.252</v>
+        <v>9.872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>213.08</v>
+        <v>247.18</v>
       </c>
       <c r="D6" t="n">
-        <v>255.74</v>
+        <v>288.12</v>
       </c>
       <c r="E6" t="n">
-        <v>13.116</v>
+        <v>10.508</v>
       </c>
     </row>
     <row r="7">
@@ -561,245 +561,245 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>214.54</v>
+        <v>201.3</v>
       </c>
       <c r="D7" t="n">
-        <v>251.76</v>
+        <v>244.9</v>
       </c>
       <c r="E7" t="n">
-        <v>15.544</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>245.06</v>
+        <v>301.4</v>
       </c>
       <c r="D8" t="n">
-        <v>299.14</v>
+        <v>344.22</v>
       </c>
       <c r="E8" t="n">
-        <v>12.216</v>
+        <v>10.368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>251.76</v>
+        <v>344.22</v>
       </c>
       <c r="D9" t="n">
-        <v>296.06</v>
+        <v>383.84</v>
       </c>
       <c r="E9" t="n">
-        <v>12.244</v>
+        <v>8.036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>305.22</v>
+        <v>244.9</v>
       </c>
       <c r="D10" t="n">
-        <v>348.62</v>
+        <v>276.26</v>
       </c>
       <c r="E10" t="n">
-        <v>9.388</v>
+        <v>12.564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>224.08</v>
+        <v>343.78</v>
       </c>
       <c r="D11" t="n">
-        <v>297.64</v>
+        <v>398.06</v>
       </c>
       <c r="E11" t="n">
-        <v>12.876</v>
+        <v>7.064</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>297.64</v>
+        <v>398.06</v>
       </c>
       <c r="D12" t="n">
-        <v>364.94</v>
+        <v>441.76</v>
       </c>
       <c r="E12" t="n">
-        <v>10.236</v>
+        <v>3.824</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>255.74</v>
+        <v>288.12</v>
       </c>
       <c r="D13" t="n">
-        <v>308.44</v>
+        <v>364.36</v>
       </c>
       <c r="E13" t="n">
-        <v>10.476</v>
+        <v>7.484</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>299.14</v>
+        <v>290.18</v>
       </c>
       <c r="D14" t="n">
-        <v>363.42</v>
+        <v>324.8</v>
       </c>
       <c r="E14" t="n">
-        <v>9.407999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>308.44</v>
+        <v>276.26</v>
       </c>
       <c r="D15" t="n">
-        <v>347.3</v>
+        <v>345.54</v>
       </c>
       <c r="E15" t="n">
-        <v>7.72</v>
+        <v>9.756</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>345.44</v>
+        <v>383.84</v>
       </c>
       <c r="D16" t="n">
-        <v>410.84</v>
+        <v>433.8</v>
       </c>
       <c r="E16" t="n">
-        <v>5.316</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>363.42</v>
+        <v>204.52</v>
       </c>
       <c r="D17" t="n">
-        <v>400.82</v>
+        <v>243.68</v>
       </c>
       <c r="E17" t="n">
-        <v>7.288</v>
+        <v>15.132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>400.82</v>
+        <v>243.68</v>
       </c>
       <c r="D18" t="n">
-        <v>468.66</v>
+        <v>276.58</v>
       </c>
       <c r="E18" t="n">
-        <v>4.584</v>
+        <v>12.972</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>348.62</v>
+        <v>324.8</v>
       </c>
       <c r="D19" t="n">
-        <v>393.24</v>
+        <v>367.12</v>
       </c>
       <c r="E19" t="n">
-        <v>7.056</v>
+        <v>7.208</v>
       </c>
     </row>
     <row r="20">
@@ -808,74 +808,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>393.24</v>
+        <v>433.8</v>
       </c>
       <c r="D20" t="n">
-        <v>438.34</v>
+        <v>507.8</v>
       </c>
       <c r="E20" t="n">
-        <v>3.676</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>347.3</v>
+        <v>441.76</v>
       </c>
       <c r="D21" t="n">
-        <v>395.1</v>
+        <v>483.66</v>
       </c>
       <c r="E21" t="n">
-        <v>5.56</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>296.06</v>
+        <v>483.66</v>
       </c>
       <c r="D22" t="n">
-        <v>368.58</v>
+        <v>552.0700000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>9.592000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>468.66</v>
+        <v>276.58</v>
       </c>
       <c r="D23" t="n">
-        <v>505.86</v>
+        <v>338.98</v>
       </c>
       <c r="E23" t="n">
-        <v>2.504</v>
+        <v>10.332</v>
       </c>
     </row>
     <row r="24">
@@ -884,79 +884,79 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>364.94</v>
+        <v>338.98</v>
       </c>
       <c r="D24" t="n">
-        <v>418.64</v>
+        <v>394.08</v>
       </c>
       <c r="E24" t="n">
-        <v>6.996</v>
+        <v>7.912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>418.64</v>
+        <v>364.36</v>
       </c>
       <c r="D25" t="n">
-        <v>458.8</v>
+        <v>408.66</v>
       </c>
       <c r="E25" t="n">
-        <v>4.62</v>
+        <v>4.184</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>368.58</v>
+        <v>367.12</v>
       </c>
       <c r="D26" t="n">
-        <v>432.48</v>
+        <v>444.22</v>
       </c>
       <c r="E26" t="n">
-        <v>6.292</v>
+        <v>5.088</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>395.1</v>
+        <v>345.54</v>
       </c>
       <c r="D27" t="n">
-        <v>460.86</v>
+        <v>419.1</v>
       </c>
       <c r="E27" t="n">
-        <v>3.064</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -964,13 +964,51 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>458.8</v>
+        <v>444.22</v>
       </c>
       <c r="D28" t="n">
-        <v>489.68</v>
+        <v>514.8</v>
       </c>
       <c r="E28" t="n">
-        <v>2.172</v>
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>pond13</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>408.66</v>
+      </c>
+      <c r="D29" t="n">
+        <v>477.42</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.428</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>depot1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>477.42</v>
+      </c>
+      <c r="D30" t="n">
+        <v>561.26</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
